--- a/biology/Zoologie/Gogonasus/Gogonasus.xlsx
+++ b/biology/Zoologie/Gogonasus/Gogonasus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gogonasus andrewsae
-Gogonasus est un genre éteint de poissons à membres charnus rattaché depuis 2009 à la famille des Tristichopteridae dont les fossiles ont été découverts en Belgique[1].
+Gogonasus est un genre éteint de poissons à membres charnus rattaché depuis 2009 à la famille des Tristichopteridae dont les fossiles ont été découverts en Belgique.
 Une seule espèce, Gogonasus andrewsae, est rattachée à ce genre. Ses restes sont datés du début du Dévonien supérieur, il y a environ 380 Ma (millions d'années).
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gogonasus est formé du nom de la formation géologique de Gogo en Australie-Occidentale où ont été trouvés les fossiles, et du nom latin « nasus » (nez) qui fait référence au fait que le premier fossile découvert était le museau du poisson.
 </t>
@@ -544,10 +558,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après plusieurs descriptions basées sur des restes fossiles partiels à partir de 1985[2], la découverte en 2005 d'un spécimen quasi complet a conduit à une révision de l'espèce[3].
-La cladistique a permis de mettre en évidence que cette forme à l'apparence « ichthyenne » (de poisson) est plus proche des vertébrés terrestres que des poissons à nageoires rayonnées[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après plusieurs descriptions basées sur des restes fossiles partiels à partir de 1985, la découverte en 2005 d'un spécimen quasi complet a conduit à une révision de l'espèce.
+La cladistique a permis de mettre en évidence que cette forme à l'apparence « ichthyenne » (de poisson) est plus proche des vertébrés terrestres que des poissons à nageoires rayonnées.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Classification phylogénique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Position basale de Gogonasus dans le cladogramme des Tristichopteridae réalisé par G. Clément en 2009[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Position basale de Gogonasus dans le cladogramme des Tristichopteridae réalisé par G. Clément en 2009 :
 </t>
         </is>
       </c>
